--- a/resources/experiment 1/metrics/MAPE/upto time/Neuropatía (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Neuropatía (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4333712151182.406</v>
+        <v>7245554834597.273</v>
       </c>
       <c r="C3" t="n">
-        <v>4217866427721.227</v>
+        <v>6391439790699.064</v>
       </c>
       <c r="D3" t="n">
-        <v>4217866427721.227</v>
+        <v>8386556660167.938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24782589148185.4</v>
+        <v>1801126611537.544</v>
       </c>
       <c r="C4" t="n">
-        <v>24829466321151.4</v>
+        <v>1722816758862.001</v>
       </c>
       <c r="D4" t="n">
-        <v>24829466321151.4</v>
+        <v>1801126611537.545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237366355759104.8</v>
+        <v>168184780109034.4</v>
       </c>
       <c r="C5" t="n">
-        <v>283999309601724.2</v>
+        <v>137570117159743.7</v>
       </c>
       <c r="D5" t="n">
-        <v>283999309601724.2</v>
+        <v>212496469990763.2</v>
       </c>
     </row>
   </sheetData>
